--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/player/KC Ordentlich Ordentlich.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/player/KC Ordentlich Ordentlich.xlsx
@@ -28,7 +28,7 @@
     <t>Katja</t>
   </si>
   <si>
-    <t>Gamis</t>
+    <t>Gamis-Cardona</t>
   </si>
   <si>
     <t>FEMALE</t>
@@ -43,10 +43,10 @@
     <t>Michael</t>
   </si>
   <si>
-    <t>Jürgens</t>
-  </si>
-  <si>
-    <t>Doren</t>
+    <t>Jörgens</t>
+  </si>
+  <si>
+    <t>Lorén</t>
   </si>
   <si>
     <t>Kaubitzsch</t>
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -135,6 +135,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -143,11 +146,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -211,7 +214,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
